--- a/_other/ws_list.xlsx
+++ b/_other/ws_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBE7FF0-908A-4C91-A940-5E076628E159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713D7D88-6D25-46EB-8C5B-377B141FF84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>номер</t>
   </si>
@@ -80,6 +80,36 @@
   </si>
   <si>
     <t>VSA</t>
+  </si>
+  <si>
+    <t>LWS1_AUTOGRID</t>
+  </si>
+  <si>
+    <t>PWS1_GRIDC</t>
+  </si>
+  <si>
+    <t>LWS2_SWIMGRID</t>
+  </si>
+  <si>
+    <t>LWS2_PSG</t>
+  </si>
+  <si>
+    <t>PWS1_PRGDC</t>
+  </si>
+  <si>
+    <t>Грид с полуручной настройкой</t>
+  </si>
+  <si>
+    <t>Грид по DC</t>
+  </si>
+  <si>
+    <t>Грид с плавающей процентной сеткой</t>
+  </si>
+  <si>
+    <t>Парный реверс с плав сеткой</t>
+  </si>
+  <si>
+    <t>Парный реверс грид по DC</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
   <dimension ref="A1:E354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,25 +538,85 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45976</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45977</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45978</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45978</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45978</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
